--- a/InputData/bldgs/MSCdtRPbQL/Market Share Changes due to Rebate Prog by Qual Lvl.xlsx
+++ b/InputData/bldgs/MSCdtRPbQL/Market Share Changes due to Rebate Prog by Qual Lvl.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\MSCdtRPbQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\bldgs\MSCdtRPbQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A28372-CA4D-4F0B-96D9-E1953B8DA16E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="21075" windowHeight="12840"/>
+    <workbookView xWindow="2490" yWindow="1020" windowWidth="24765" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="MSCdtRPbQL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,9 +42,6 @@
     <t>Datta, S. and Filippini, M.</t>
   </si>
   <si>
-    <t>http://www.cepe.ethz.ch/publications/workingPapers/CEPE_WP86.pdf</t>
-  </si>
-  <si>
     <t>Page 12, first paragrah</t>
   </si>
   <si>
@@ -68,12 +76,15 @@
   </si>
   <si>
     <t>This variable measures how a rebate program influences market shares of rebate-qualifying and non-qualifying components.</t>
+  </si>
+  <si>
+    <t>https://ethz.ch/content/dam/ethz/special-interest/mtec/cepe/cepe-dam/documents/research/cepe-wp/CEPE_WP86.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,6 +236,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -260,6 +288,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,12 +480,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -467,57 +510,57 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -525,7 +568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -544,15 +587,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <f>-C2</f>
